--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/15/seed2/result_data_KNN.xlsx
@@ -465,7 +465,7 @@
         <v>-20.51</v>
       </c>
       <c r="B2" t="n">
-        <v>5.452</v>
+        <v>5.885</v>
       </c>
       <c r="C2" t="n">
         <v>-10.94</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.776</v>
+        <v>-21.573</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.918000000000001</v>
+        <v>-7.768000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.116000000000001</v>
+        <v>-7.243</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.42</v>
+        <v>-21.559</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.306</v>
+        <v>-20.469</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.59</v>
+        <v>-20.428</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.203999999999999</v>
+        <v>-7.678999999999999</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -853,16 +853,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.122</v>
+        <v>-21.275</v>
       </c>
       <c r="B25" t="n">
-        <v>5.954</v>
+        <v>6.575999999999999</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.146000000000001</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.574</v>
+        <v>-21.351</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.092000000000001</v>
+        <v>6.202</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.264</v>
+        <v>-21.219</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.842000000000001</v>
+        <v>6.657999999999999</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>8.225999999999999</v>
+        <v>7.517</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.486</v>
+        <v>5.274</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.482000000000001</v>
+        <v>-7.989000000000002</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.923999999999999</v>
+        <v>6.047000000000001</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.172</v>
+        <v>5.813000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-22.162</v>
+        <v>-22.079</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-7.758</v>
+        <v>-7.704000000000001</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.720000000000001</v>
+        <v>4.671</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.024000000000001</v>
+        <v>5.003</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.302</v>
+        <v>-21.303</v>
       </c>
       <c r="B57" t="n">
-        <v>7.49</v>
+        <v>6.431999999999999</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.517999999999999</v>
+        <v>-8.231999999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.182</v>
+        <v>-22.397</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.913999999999999</v>
+        <v>-7.811</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.384</v>
+        <v>-7.359999999999999</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.42</v>
+        <v>-21.531</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.99</v>
+        <v>-7.163999999999999</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>6.673999999999999</v>
+        <v>6.751</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.13</v>
+        <v>-21.025</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.876</v>
+        <v>-22.022</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.24</v>
+        <v>-8.07</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>5.42</v>
+        <v>5.832000000000001</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.664</v>
+        <v>5.671</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.516</v>
+        <v>-21.533</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.414000000000001</v>
+        <v>5.899</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-22.062</v>
+        <v>-21.301</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.168000000000001</v>
+        <v>-8.063000000000001</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.105999999999998</v>
+        <v>-8.145999999999999</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.841999999999999</v>
+        <v>-8.068000000000001</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
